--- a/Fabril Docs Jay/ROWBUILD Project tracker.xlsx
+++ b/Fabril Docs Jay/ROWBUILD Project tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABRIL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABRIL\Documents\GitHub\Fabril-Solutions\Fabril Docs Jay\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14237,7 +14237,23 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDF6909"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDF6909"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -15518,8 +15534,8 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Table Style 1" pivot="0" count="0"/>
   </tableStyles>
@@ -15705,9 +15721,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>454</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15752,9 +15768,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>455</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15804,9 +15820,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>165</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15851,9 +15867,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>166</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15898,9 +15914,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>167</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15945,9 +15961,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>168</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15992,9 +16008,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>169</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16039,9 +16055,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>170</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16086,9 +16102,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>172</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16133,9 +16149,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>173</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16180,9 +16196,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>174</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16227,9 +16243,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16274,9 +16290,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>176</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16321,9 +16337,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>177</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16368,9 +16384,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>178</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16415,9 +16431,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>179</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16462,9 +16478,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>181</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16509,9 +16525,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>182</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16556,9 +16572,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>183</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16603,9 +16619,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>184</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16650,9 +16666,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>129540</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>185</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16690,48 +16706,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D47" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D47" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <tableColumns count="4">
-    <tableColumn id="1" name="Exch/Patch" dataDxfId="44"/>
-    <tableColumn id="2" name="FM" dataDxfId="43"/>
-    <tableColumn id="3" name="Contact" dataDxfId="42"/>
-    <tableColumn id="4" name="Email ID" dataDxfId="41"/>
+    <tableColumn id="1" name="Exch/Patch" dataDxfId="46"/>
+    <tableColumn id="2" name="FM" dataDxfId="45"/>
+    <tableColumn id="3" name="Contact" dataDxfId="44"/>
+    <tableColumn id="4" name="Email ID" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A4:Q56" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A4:Q56" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" headerRowCellStyle="Heading 2">
   <sortState ref="A5:S227">
     <sortCondition ref="J4:J227"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="3" name="Patch" dataDxfId="30" dataCellStyle="Text"/>
-    <tableColumn id="18" name="Exch" dataDxfId="29" dataCellStyle="Text"/>
-    <tableColumn id="2" name="Work ID" dataDxfId="28" dataCellStyle="Text"/>
-    <tableColumn id="15" name="Project Name" dataDxfId="27" dataCellStyle="Text"/>
-    <tableColumn id="7" name="TASK CODE" dataDxfId="26" dataCellStyle="Text"/>
-    <tableColumn id="4" name="Target Payment" dataDxfId="25" dataCellStyle="Date"/>
-    <tableColumn id="11" name="VARIATION FORM PAY" dataDxfId="24" dataCellStyle="Date"/>
-    <tableColumn id="10" name="FINAL PAY" dataDxfId="23" dataCellStyle="Date">
+    <tableColumn id="3" name="Patch" dataDxfId="32" dataCellStyle="Text"/>
+    <tableColumn id="18" name="Exch" dataDxfId="31" dataCellStyle="Text"/>
+    <tableColumn id="2" name="Work ID" dataDxfId="30" dataCellStyle="Text"/>
+    <tableColumn id="15" name="Project Name" dataDxfId="29" dataCellStyle="Text"/>
+    <tableColumn id="7" name="TASK CODE" dataDxfId="28" dataCellStyle="Text"/>
+    <tableColumn id="4" name="Target Payment" dataDxfId="27" dataCellStyle="Date"/>
+    <tableColumn id="11" name="VARIATION FORM PAY" dataDxfId="26" dataCellStyle="Date"/>
+    <tableColumn id="10" name="FINAL PAY" dataDxfId="25" dataCellStyle="Date">
       <calculatedColumnFormula>SUM(F5,G5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Actual Payment" dataDxfId="22" dataCellStyle="Date"/>
-    <tableColumn id="5" name="Target Date" dataDxfId="21" dataCellStyle="Date"/>
-    <tableColumn id="9" name="Actual_x000a_Finish" dataDxfId="20" dataCellStyle="Date"/>
-    <tableColumn id="1" name="Job Status" dataDxfId="19" dataCellStyle="Date"/>
-    <tableColumn id="13" name="PAYMENT STATUS" dataDxfId="18" dataCellStyle="Date"/>
-    <tableColumn id="6" name="MISPAY" dataDxfId="17" dataCellStyle="Date">
+    <tableColumn id="16" name="Actual Payment" dataDxfId="24" dataCellStyle="Date"/>
+    <tableColumn id="5" name="Target Date" dataDxfId="23" dataCellStyle="Date"/>
+    <tableColumn id="9" name="Actual_x000a_Finish" dataDxfId="22" dataCellStyle="Date"/>
+    <tableColumn id="1" name="Job Status" dataDxfId="21" dataCellStyle="Date"/>
+    <tableColumn id="13" name="PAYMENT STATUS" dataDxfId="20" dataCellStyle="Date"/>
+    <tableColumn id="6" name="MISPAY" dataDxfId="19" dataCellStyle="Date">
       <calculatedColumnFormula>IF(AND(M5="PAID", H5&gt;I5), "MISCALC", "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="FM" dataDxfId="16" dataCellStyle="Date">
+    <tableColumn id="14" name="FM" dataDxfId="18" dataCellStyle="Date">
       <calculatedColumnFormula>VLOOKUP(B5&amp;A5, Table1[#All], 5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="CONTACT" dataDxfId="15" dataCellStyle="Date">
+    <tableColumn id="20" name="CONTACT" dataDxfId="17" dataCellStyle="Date">
       <calculatedColumnFormula>VLOOKUP(B5&amp;A5, Table1[#All], 6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Comments" dataDxfId="14"/>
+    <tableColumn id="19" name="Comments" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -16751,10 +16767,10 @@
     <tableColumn id="3" name="PAY CODE"/>
     <tableColumn id="4" name="CODE TYPE"/>
     <tableColumn id="5" name="QUANTITY"/>
-    <tableColumn id="6" name="CODE RATE" dataDxfId="11">
+    <tableColumn id="6" name="CODE RATE" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(C2,#REF!, 5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="FINAL PAY" dataDxfId="10">
+    <tableColumn id="7" name="FINAL PAY" dataDxfId="12">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16763,17 +16779,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <tableColumns count="7">
-    <tableColumn id="7" name="HC" dataDxfId="6">
+    <tableColumn id="7" name="HC" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE(B2,D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="EXCH" dataDxfId="5"/>
-    <tableColumn id="2" name="AREA" dataDxfId="4"/>
-    <tableColumn id="3" name="PATCH" dataDxfId="3"/>
-    <tableColumn id="4" name="FIELD MANAGER" dataDxfId="2"/>
-    <tableColumn id="5" name="CONTACT" dataDxfId="1"/>
-    <tableColumn id="6" name="EMAIL ID" dataDxfId="0"/>
+    <tableColumn id="1" name="EXCH" dataDxfId="7"/>
+    <tableColumn id="2" name="AREA" dataDxfId="6"/>
+    <tableColumn id="3" name="PATCH" dataDxfId="5"/>
+    <tableColumn id="4" name="FIELD MANAGER" dataDxfId="4"/>
+    <tableColumn id="5" name="CONTACT" dataDxfId="3"/>
+    <tableColumn id="6" name="EMAIL ID" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17012,12 +17028,12 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17709,33 +17725,33 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.8984375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.8984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.58203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="6.4140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.9140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.9140625" style="14" customWidth="1"/>
     <col min="6" max="6" width="9" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="95" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="7.09765625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="5.69921875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="7.296875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.09765625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.4140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.08203125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.08203125" style="10" customWidth="1"/>
     <col min="18" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -18396,11 +18412,11 @@
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="24">
-        <v>43192</v>
+        <v>43244</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="22" t="s">
-        <v>515</v>
+        <v>4181</v>
       </c>
       <c r="M15" s="22" t="str">
         <f t="shared" si="1"/>
@@ -20523,22 +20539,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40:B41 C21 B2:B3 C4:C19 A1 B57:B1048576 D22:E22">
-    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H3 H57:H1048576 J4:J56">
-    <cfRule type="timePeriod" dxfId="36" priority="2" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="38" priority="2" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(H1,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(H1,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="35" priority="3" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="37" priority="3" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(H1,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(H1,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20572,14 +20588,14 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -24296,7 +24312,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="107">
         <v>131078</v>
       </c>
@@ -24315,7 +24331,7 @@
         <v>142.10999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C158" s="106" t="s">
         <v>4331</v>
       </c>
@@ -24331,7 +24347,7 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C159" s="106" t="s">
         <v>259</v>
       </c>
@@ -24347,7 +24363,7 @@
         <v>274.625</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C160" s="106" t="s">
         <v>4332</v>
       </c>
@@ -24363,7 +24379,7 @@
         <v>44.94</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C161" s="106" t="s">
         <v>195</v>
       </c>
@@ -24379,7 +24395,7 @@
         <v>61.524999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C162" s="106" t="s">
         <v>207</v>
       </c>
@@ -24395,7 +24411,7 @@
         <v>263.52</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C163" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24411,7 +24427,7 @@
         <v>421.64100000000008</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C164" s="106" t="s">
         <v>195</v>
       </c>
@@ -24427,7 +24443,7 @@
         <v>83.95</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C165" s="106" t="s">
         <v>259</v>
       </c>
@@ -24443,7 +24459,7 @@
         <v>68.106999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C166" s="106" t="s">
         <v>271</v>
       </c>
@@ -24459,7 +24475,7 @@
         <v>21.5946</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C167" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24475,7 +24491,7 @@
         <v>183.137</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C168" s="106" t="s">
         <v>259</v>
       </c>
@@ -24491,7 +24507,7 @@
         <v>127.42599999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C169" s="106" t="s">
         <v>275</v>
       </c>
@@ -24507,7 +24523,7 @@
         <v>2.4640000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="107">
         <v>132642</v>
       </c>
@@ -24526,7 +24542,7 @@
         <v>142.10999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C171" s="106" t="s">
         <v>259</v>
       </c>
@@ -24542,7 +24558,7 @@
         <v>689.85799999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C172" s="106" t="s">
         <v>259</v>
       </c>
@@ -24558,7 +24574,7 @@
         <v>279.01899999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C173" s="106" t="s">
         <v>271</v>
       </c>
@@ -24574,7 +24590,7 @@
         <v>88.468199999999996</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C174" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24590,7 +24606,7 @@
         <v>212.95000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C175" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24606,7 +24622,7 @@
         <v>166.101</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C176" s="106" t="s">
         <v>259</v>
       </c>
@@ -24622,7 +24638,7 @@
         <v>160.381</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A177" s="22">
         <v>132054</v>
       </c>
@@ -24641,7 +24657,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C178" s="106" t="s">
         <v>259</v>
       </c>
@@ -24657,7 +24673,7 @@
         <v>215.30600000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C179" s="106" t="s">
         <v>275</v>
       </c>
@@ -24673,7 +24689,7 @@
         <v>14.783999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C180" s="106" t="s">
         <v>259</v>
       </c>
@@ -24689,7 +24705,7 @@
         <v>483.34</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C181" s="106" t="s">
         <v>263</v>
       </c>
@@ -24705,7 +24721,7 @@
         <v>2018.7660000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C182" s="106" t="s">
         <v>263</v>
       </c>
@@ -24721,7 +24737,7 @@
         <v>136.28800000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C183" s="106" t="s">
         <v>259</v>
       </c>
@@ -24737,7 +24753,7 @@
         <v>87.88</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C184" s="106" t="s">
         <v>263</v>
       </c>
@@ -24753,7 +24769,7 @@
         <v>468.49</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C185" s="106" t="s">
         <v>4336</v>
       </c>
@@ -24769,7 +24785,7 @@
         <v>232.39</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C186" s="106" t="s">
         <v>434</v>
       </c>
@@ -24785,7 +24801,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C187" s="106" t="s">
         <v>223</v>
       </c>
@@ -24801,7 +24817,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C188" s="106" t="s">
         <v>4334</v>
       </c>
@@ -24817,7 +24833,7 @@
         <v>60.58</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="22">
         <v>130744</v>
       </c>
@@ -24836,7 +24852,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C190" s="106" t="s">
         <v>187</v>
       </c>
@@ -24852,7 +24868,7 @@
         <v>60.52</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C191" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24868,7 +24884,7 @@
         <v>136.28800000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C192" s="106" t="s">
         <v>4337</v>
       </c>
@@ -24884,7 +24900,7 @@
         <v>158.184</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C193" s="106" t="s">
         <v>195</v>
       </c>
@@ -24900,7 +24916,7 @@
         <v>257.59999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C194" s="106" t="s">
         <v>4333</v>
       </c>
@@ -24916,7 +24932,7 @@
         <v>183.137</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="106">
         <v>129940</v>
       </c>
@@ -24936,7 +24952,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C196" s="106" t="s">
         <v>263</v>
       </c>
@@ -24953,7 +24969,7 @@
         <v>127.77000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C197" s="106" t="s">
         <v>231</v>
       </c>
@@ -24970,7 +24986,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C198" s="106" t="s">
         <v>259</v>
       </c>
@@ -24987,7 +25003,7 @@
         <v>988.65</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C199" s="106" t="s">
         <v>259</v>
       </c>
@@ -25004,7 +25020,7 @@
         <v>373.49</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C200" s="106" t="s">
         <v>4333</v>
       </c>
@@ -25021,7 +25037,7 @@
         <v>191.65500000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C201" s="106" t="s">
         <v>4333</v>
       </c>
@@ -25038,7 +25054,7 @@
         <v>170.36</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C202" s="106" t="s">
         <v>4333</v>
       </c>
@@ -25055,7 +25071,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C203" s="106" t="s">
         <v>259</v>
       </c>
@@ -25072,7 +25088,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="106">
         <v>132054</v>
       </c>
@@ -25091,7 +25107,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B205" s="106"/>
       <c r="C205" s="106" t="s">
         <v>259</v>
@@ -25108,7 +25124,7 @@
         <v>215.30600000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B206" s="106"/>
       <c r="C206" s="106" t="s">
         <v>275</v>
@@ -25125,7 +25141,7 @@
         <v>14.783999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B207" s="106"/>
       <c r="C207" s="106" t="s">
         <v>259</v>
@@ -25142,7 +25158,7 @@
         <v>483.34</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B208" s="106"/>
       <c r="C208" s="106" t="s">
         <v>263</v>
@@ -25159,7 +25175,7 @@
         <v>2018.7660000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B209" s="106"/>
       <c r="C209" s="106" t="s">
         <v>263</v>
@@ -25176,7 +25192,7 @@
         <v>136.28800000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B210" s="106"/>
       <c r="C210" s="106" t="s">
         <v>259</v>
@@ -25193,7 +25209,7 @@
         <v>87.88</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B211" s="106"/>
       <c r="C211" s="106" t="s">
         <v>263</v>
@@ -25210,7 +25226,7 @@
         <v>468.49</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B212" s="106"/>
       <c r="C212" s="106" t="s">
         <v>4336</v>
@@ -25227,7 +25243,7 @@
         <v>232.39</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B213" s="106"/>
       <c r="C213" s="106" t="s">
         <v>434</v>
@@ -25244,7 +25260,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B214" s="106"/>
       <c r="C214" s="106" t="s">
         <v>223</v>
@@ -25261,7 +25277,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B215" s="106"/>
       <c r="C215" s="106" t="s">
         <v>4334</v>
@@ -25278,7 +25294,7 @@
         <v>60.58</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A216" s="106">
         <v>130744</v>
       </c>
@@ -25297,7 +25313,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B217" s="106"/>
       <c r="C217" s="106" t="s">
         <v>187</v>
@@ -25314,7 +25330,7 @@
         <v>60.52</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B218" s="106"/>
       <c r="C218" s="106" t="s">
         <v>4333</v>
@@ -25331,7 +25347,7 @@
         <v>136.28800000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B219" s="106"/>
       <c r="C219" s="106" t="s">
         <v>4337</v>
@@ -25348,7 +25364,7 @@
         <v>158.184</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B220" s="106"/>
       <c r="C220" s="106" t="s">
         <v>195</v>
@@ -25365,7 +25381,7 @@
         <v>257.59999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B221" s="106"/>
       <c r="C221" s="106" t="s">
         <v>4333</v>
@@ -25382,7 +25398,7 @@
         <v>183.137</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A222" s="106">
         <v>133975</v>
       </c>
@@ -25401,7 +25417,7 @@
         <v>372.97</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B223" s="106"/>
       <c r="C223" s="106" t="s">
         <v>231</v>
@@ -25418,7 +25434,7 @@
         <v>189.48</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B224" s="106"/>
       <c r="C224" s="106" t="s">
         <v>259</v>
@@ -25435,7 +25451,7 @@
         <v>87.88</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B225" s="106"/>
       <c r="C225" s="106" t="s">
         <v>268</v>
@@ -25452,7 +25468,7 @@
         <v>295.62</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B226" s="106"/>
       <c r="C226" s="106" t="s">
         <v>424</v>
@@ -25469,7 +25485,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B227" s="106"/>
       <c r="C227" s="106" t="s">
         <v>4332</v>
@@ -25486,7 +25502,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B228" s="106"/>
       <c r="C228" s="106" t="s">
         <v>207</v>
@@ -25503,7 +25519,7 @@
         <v>351.36</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B229" s="106"/>
       <c r="C229" s="106" t="s">
         <v>195</v>
@@ -25520,7 +25536,7 @@
         <v>97.75</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B230" s="106"/>
       <c r="C230" s="106" t="s">
         <v>263</v>
@@ -25537,7 +25553,7 @@
         <v>383.31000000000006</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B231" s="106"/>
       <c r="C231" s="106" t="s">
         <v>4340</v>
@@ -25554,7 +25570,7 @@
         <v>273.29999999999995</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B232" s="106"/>
       <c r="C232" s="106" t="s">
         <v>195</v>
@@ -25571,7 +25587,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B233" s="106"/>
       <c r="C233" s="106" t="s">
         <v>263</v>
@@ -25588,7 +25604,7 @@
         <v>170.36</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B234" s="106"/>
       <c r="C234" s="106" t="s">
         <v>195</v>
@@ -25605,7 +25621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B235" s="106"/>
       <c r="C235" s="106" t="s">
         <v>263</v>
@@ -25622,7 +25638,7 @@
         <v>383.31000000000006</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A236" s="106">
         <v>133661</v>
       </c>
@@ -25641,7 +25657,7 @@
         <v>142.10999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B237" s="106"/>
       <c r="C237" s="106" t="s">
         <v>207</v>
@@ -25658,7 +25674,7 @@
         <v>263.52</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B238" s="106"/>
       <c r="C238" s="106" t="s">
         <v>418</v>
@@ -25675,7 +25691,7 @@
         <v>176.4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B239" s="106"/>
       <c r="C239" s="106" t="s">
         <v>195</v>
@@ -25692,7 +25708,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B240" s="106"/>
       <c r="C240" s="106" t="s">
         <v>263</v>
@@ -25709,7 +25725,7 @@
         <v>532.375</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B241" s="106"/>
       <c r="C241" s="106" t="s">
         <v>418</v>
@@ -25726,7 +25742,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B242" s="106"/>
       <c r="C242" s="106" t="s">
         <v>195</v>
@@ -25743,7 +25759,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B243" s="106"/>
       <c r="C243" s="106" t="s">
         <v>263</v>
@@ -25760,7 +25776,7 @@
         <v>212.95000000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B244" s="106"/>
       <c r="C244" s="106" t="s">
         <v>195</v>
@@ -25777,7 +25793,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A245" s="110">
         <v>133226</v>
       </c>
@@ -25796,7 +25812,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B246" s="106"/>
       <c r="C246" s="106" t="s">
         <v>195</v>
@@ -25813,7 +25829,7 @@
         <v>415.15000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B247" s="106"/>
       <c r="C247" s="106" t="s">
         <v>259</v>
@@ -25830,7 +25846,7 @@
         <v>142.80500000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B248" s="106"/>
       <c r="C248" s="106" t="s">
         <v>263</v>
@@ -25847,7 +25863,7 @@
         <v>136.28800000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B249" s="106"/>
       <c r="C249" s="106" t="s">
         <v>263</v>
@@ -25864,7 +25880,7 @@
         <v>178.87800000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B250" s="106"/>
       <c r="C250" s="106" t="s">
         <v>195</v>
@@ -25881,7 +25897,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A251" s="106">
         <v>133555</v>
       </c>
@@ -25900,7 +25916,7 @@
         <v>878.8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B252" s="106"/>
       <c r="C252" s="106" t="s">
         <v>259</v>
@@ -25917,7 +25933,7 @@
         <v>703.04</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B253" s="106"/>
       <c r="C253" s="106" t="s">
         <v>275</v>
@@ -25934,7 +25950,7 @@
         <v>83.16</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B254" s="106"/>
       <c r="C254" s="106" t="s">
         <v>207</v>
@@ -25951,7 +25967,7 @@
         <v>263.52</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B255" s="106"/>
       <c r="C255" s="106" t="s">
         <v>263</v>
@@ -25968,7 +25984,7 @@
         <v>127.77000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B256" s="106"/>
       <c r="C256" s="106" t="s">
         <v>259</v>
@@ -25985,7 +26001,7 @@
         <v>87.88</v>
       </c>
     </row>
-    <row r="257" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B257" s="106"/>
       <c r="C257" s="106" t="s">
         <v>275</v>
@@ -26002,7 +26018,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="258" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B258" s="106"/>
       <c r="C258" s="106" t="s">
         <v>263</v>
@@ -26019,7 +26035,7 @@
         <v>170.36</v>
       </c>
     </row>
-    <row r="259" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B259" s="106"/>
       <c r="C259" s="106" t="s">
         <v>259</v>
@@ -26036,7 +26052,7 @@
         <v>219.7</v>
       </c>
     </row>
-    <row r="260" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B260" s="106"/>
       <c r="C260" s="106" t="s">
         <v>275</v>
@@ -26053,7 +26069,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B261" s="106"/>
       <c r="C261" s="106" t="s">
         <v>195</v>
@@ -26070,7 +26086,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="262" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B262" s="106"/>
       <c r="C262" s="106" t="s">
         <v>259</v>
@@ -26087,7 +26103,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="263" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B263" s="106"/>
       <c r="C263" s="106" t="s">
         <v>263</v>
@@ -26104,7 +26120,7 @@
         <v>170.36</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B264" s="106"/>
       <c r="C264" s="106" t="s">
         <v>259</v>
@@ -26121,7 +26137,7 @@
         <v>109.85</v>
       </c>
     </row>
-    <row r="265" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B265" s="106"/>
       <c r="C265" s="106" t="s">
         <v>259</v>
@@ -26138,7 +26154,7 @@
         <v>131.82</v>
       </c>
     </row>
-    <row r="266" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B266" s="106"/>
       <c r="C266" s="106" t="s">
         <v>275</v>
@@ -26155,7 +26171,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="267" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B267" s="106"/>
       <c r="C267" s="106" t="s">
         <v>195</v>
@@ -26172,7 +26188,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="268" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B268" s="106"/>
       <c r="C268" s="106" t="s">
         <v>4340</v>
@@ -26189,7 +26205,7 @@
         <v>54.66</v>
       </c>
     </row>
-    <row r="269" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B269" s="106"/>
       <c r="C269" s="106" t="s">
         <v>195</v>
@@ -26206,7 +26222,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="270" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B270" s="106"/>
       <c r="C270" s="106" t="s">
         <v>207</v>
@@ -26223,7 +26239,7 @@
         <v>87.84</v>
       </c>
     </row>
-    <row r="271" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B271" s="106"/>
       <c r="C271" s="106" t="s">
         <v>4341</v>
@@ -26240,7 +26256,7 @@
         <v>289.05</v>
       </c>
     </row>
-    <row r="272" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B272" s="106"/>
       <c r="C272" s="111" t="s">
         <v>4342</v>
@@ -26256,7 +26272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B273" s="106"/>
       <c r="C273" s="106" t="s">
         <v>4343</v>
@@ -26273,7 +26289,7 @@
         <v>232.39</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B274" s="106"/>
       <c r="C274" s="106" t="s">
         <v>434</v>
@@ -26290,7 +26306,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B275" s="106"/>
       <c r="C275" s="106" t="s">
         <v>223</v>
@@ -26307,7 +26323,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B276" s="106"/>
       <c r="C276" s="106" t="s">
         <v>4344</v>
@@ -26324,7 +26340,7 @@
         <v>75.64</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A277" s="106">
         <v>132526</v>
       </c>
@@ -26343,7 +26359,7 @@
         <v>175.68</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B278" s="106"/>
       <c r="C278" s="106" t="s">
         <v>195</v>
@@ -26360,7 +26376,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B279" s="106"/>
       <c r="C279" s="106" t="s">
         <v>263</v>
@@ -26377,7 +26393,7 @@
         <v>255.54000000000002</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B280" s="106"/>
       <c r="C280" s="106" t="s">
         <v>263</v>
@@ -26394,7 +26410,7 @@
         <v>149.065</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B281" s="106"/>
       <c r="C281" s="106" t="s">
         <v>263</v>
@@ -26411,7 +26427,7 @@
         <v>553.67000000000007</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A282" s="112">
         <v>133054</v>
       </c>
@@ -26430,7 +26446,7 @@
         <v>175.68</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B283" s="106"/>
       <c r="C283" s="106" t="s">
         <v>263</v>
@@ -26447,7 +26463,7 @@
         <v>1320.2900000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B284" s="106"/>
       <c r="C284" s="106" t="s">
         <v>263</v>
@@ -27566,7 +27582,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A334" s="106">
         <v>132307</v>
       </c>
@@ -27585,7 +27601,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B335" s="106"/>
       <c r="C335" s="106" t="s">
         <v>263</v>
@@ -27602,7 +27618,7 @@
         <v>281.09399999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B336" s="106"/>
       <c r="C336" s="106" t="s">
         <v>195</v>
@@ -27619,7 +27635,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B337" s="106"/>
       <c r="C337" s="106" t="s">
         <v>263</v>
@@ -27636,7 +27652,7 @@
         <v>119.252</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B338" s="106"/>
       <c r="C338" s="106" t="s">
         <v>259</v>
@@ -27653,7 +27669,7 @@
         <v>41.742999999999995</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B339" s="106"/>
       <c r="C339" s="106" t="s">
         <v>195</v>
@@ -27670,7 +27686,7 @@
         <v>9.7750000000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A340" s="106">
         <v>132820</v>
       </c>
@@ -27689,7 +27705,7 @@
         <v>142.10999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B341" s="106"/>
       <c r="C341" s="106" t="s">
         <v>4331</v>
@@ -27706,7 +27722,7 @@
         <v>60.52</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B342" s="106"/>
       <c r="C342" s="106" t="s">
         <v>4337</v>
@@ -27723,7 +27739,7 @@
         <v>120.83499999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B343" s="106"/>
       <c r="C343" s="106" t="s">
         <v>263</v>
@@ -27740,7 +27756,7 @@
         <v>315.16600000000005</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B344" s="106"/>
       <c r="C344" s="106" t="s">
         <v>259</v>
@@ -27757,7 +27773,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B345" s="106"/>
       <c r="C345" s="106" t="s">
         <v>263</v>
@@ -27774,7 +27790,7 @@
         <v>281.09399999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A346" s="106">
         <v>132877</v>
       </c>
@@ -27793,7 +27809,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B347" s="106"/>
       <c r="C347" s="106">
         <v>733</v>
@@ -27810,7 +27826,7 @@
         <v>530.64</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B348" s="106"/>
       <c r="C348" s="106" t="s">
         <v>1073</v>
@@ -27827,7 +27843,7 @@
         <v>92.52</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B349" s="106"/>
       <c r="C349" s="106">
         <v>733</v>
@@ -27844,7 +27860,7 @@
         <v>162.14000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B350" s="106"/>
       <c r="C350" s="106" t="s">
         <v>1073</v>
@@ -27861,7 +27877,7 @@
         <v>92.52</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A351" s="106">
         <v>133862</v>
       </c>
@@ -27880,7 +27896,7 @@
         <v>94.74</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B352" s="106"/>
       <c r="C352" s="106" t="s">
         <v>4337</v>
@@ -27897,7 +27913,7 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B353" s="106"/>
       <c r="C353" s="106" t="s">
         <v>4337</v>
@@ -27914,7 +27930,7 @@
         <v>235.07899999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B354" s="106"/>
       <c r="C354" s="106" t="s">
         <v>4337</v>
@@ -27931,7 +27947,7 @@
         <v>395.46</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B355" s="106"/>
       <c r="C355" s="106" t="s">
         <v>269</v>
@@ -27948,7 +27964,7 @@
         <v>734.61599999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B356" s="106"/>
       <c r="C356" s="106" t="s">
         <v>263</v>
@@ -27965,7 +27981,7 @@
         <v>728.2890000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B357" s="106"/>
       <c r="C357" s="106" t="s">
         <v>195</v>
@@ -27982,7 +27998,7 @@
         <v>303.59999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A358" s="106">
         <v>134222</v>
       </c>
@@ -28001,7 +28017,7 @@
         <v>189.48</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B359" s="106"/>
       <c r="C359" s="106" t="s">
         <v>1065</v>
@@ -28018,7 +28034,7 @@
         <v>856.15200000000004</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B360" s="106"/>
       <c r="C360" s="106" t="s">
         <v>1073</v>
@@ -28035,7 +28051,7 @@
         <v>70.931999999999988</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B361" s="106"/>
       <c r="C361" s="106" t="s">
         <v>1073</v>
@@ -28052,7 +28068,7 @@
         <v>86.35199999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B362" s="106"/>
       <c r="C362" s="106" t="s">
         <v>1073</v>
@@ -28069,7 +28085,7 @@
         <v>86.35199999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B363" s="106"/>
       <c r="C363" s="106" t="s">
         <v>1065</v>
@@ -28086,7 +28102,7 @@
         <v>37.223999999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B364" s="106"/>
       <c r="C364" s="113">
         <v>733</v>
@@ -28103,7 +28119,7 @@
         <v>235.84</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A365" s="22">
         <v>133968</v>
       </c>
@@ -28122,7 +28138,7 @@
         <v>189.48</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C366" s="114" t="s">
         <v>1065</v>
       </c>
@@ -28138,7 +28154,7 @@
         <v>403.26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C367" s="114" t="s">
         <v>1073</v>
       </c>
@@ -28154,7 +28170,7 @@
         <v>314.56799999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C368" s="114" t="s">
         <v>1065</v>
       </c>
@@ -28170,7 +28186,7 @@
         <v>111.672</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C369" s="114" t="s">
         <v>1073</v>
       </c>
@@ -28186,7 +28202,7 @@
         <v>277.56</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C370" s="114" t="s">
         <v>1073</v>
       </c>
@@ -28202,7 +28218,7 @@
         <v>148.03199999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C371" s="114" t="s">
         <v>1065</v>
       </c>
@@ -30149,7 +30165,7 @@
         <v>60.58</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="70">
         <v>137645</v>
       </c>
@@ -30180,7 +30196,7 @@
       <c r="L455" s="40"/>
       <c r="M455" s="41"/>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" ht="14" x14ac:dyDescent="0.25">
       <c r="A456" s="46"/>
       <c r="B456" s="47" t="s">
         <v>488</v>
@@ -31871,10 +31887,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a category from the list or create a new category to display in this list from the Setup worksheet." sqref="A177 A189 A365">
@@ -31888,7 +31904,32 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId4" name="Control 3">
+        <control shapeId="4098" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>454</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>454</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId4" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId6" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -31899,41 +31940,16 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
+                <xdr:colOff>107950</xdr:colOff>
                 <xdr:row>455</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId4" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>454</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>454</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="Control 2"/>
+        <control shapeId="4099" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -31951,15 +31967,15 @@
       <selection activeCell="B1460" sqref="B1460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="72.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" customWidth="1"/>
+    <col min="2" max="2" width="72.9140625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>545</v>
       </c>
@@ -65979,7 +65995,7 @@
         <v>10771.83</v>
       </c>
     </row>
-    <row r="2431" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2431" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2431" s="81" t="s">
         <v>4180</v>
       </c>
@@ -66006,19 +66022,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.9140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="32.09765625" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" customWidth="1"/>
+    <col min="7" max="7" width="32.08203125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="101" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="101" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>4313</v>
       </c>
@@ -66041,7 +66057,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="str">
         <f t="shared" ref="A2:A47" si="0">CONCATENATE(B2,D2)</f>
         <v>ETMNP07</v>
@@ -66065,7 +66081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="str">
         <f t="shared" si="0"/>
         <v>HCKNP07</v>
@@ -66089,7 +66105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MKYNP07</v>
@@ -66113,7 +66129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MNRNP07</v>
@@ -66137,7 +66153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MWNNP07</v>
@@ -66161,7 +66177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="str">
         <f t="shared" si="0"/>
         <v>OAANP07</v>
@@ -66185,7 +66201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="str">
         <f t="shared" si="0"/>
         <v>OHNP07</v>
@@ -66209,7 +66225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="str">
         <f t="shared" si="0"/>
         <v>PAKNP07</v>
@@ -66233,7 +66249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="str">
         <f t="shared" si="0"/>
         <v>PGANP07</v>
@@ -66257,7 +66273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="str">
         <f t="shared" si="0"/>
         <v>POPNP07</v>
@@ -66281,7 +66297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="str">
         <f t="shared" si="0"/>
         <v>PUKNP07</v>
@@ -66305,7 +66321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="str">
         <f t="shared" si="0"/>
         <v>WKUNP07</v>
@@ -66329,7 +66345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ATNP08</v>
@@ -66353,7 +66369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="str">
         <f t="shared" si="0"/>
         <v>AVDNP08</v>
@@ -66377,7 +66393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ELLNP08</v>
@@ -66401,7 +66417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="str">
         <f t="shared" si="0"/>
         <v>GDWNP08</v>
@@ -66425,7 +66441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A18" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MABNP08</v>
@@ -66449,7 +66465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A19" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MODNP08</v>
@@ -66473,7 +66489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MTLNP08</v>
@@ -66497,7 +66513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="str">
         <f t="shared" si="0"/>
         <v>NLNNP08</v>
@@ -66521,7 +66537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A22" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ONNP08</v>
@@ -66545,7 +66561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A23" s="98" t="str">
         <f t="shared" si="0"/>
         <v>POYNP08</v>
@@ -66569,7 +66585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="str">
         <f t="shared" si="0"/>
         <v>RUENP08</v>
@@ -66593,7 +66609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A25" s="98" t="str">
         <f t="shared" si="0"/>
         <v>SHBNP08</v>
@@ -66617,7 +66633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A26" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TISNP08</v>
@@ -66641,7 +66657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TMKNP08</v>
@@ -66665,7 +66681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="str">
         <f t="shared" si="0"/>
         <v>WHNP07</v>
@@ -66689,7 +66705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ALYNP09</v>
@@ -66713,7 +66729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A30" s="98" t="str">
         <f t="shared" si="0"/>
         <v>BDNP09</v>
@@ -66737,7 +66753,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A31" s="98" t="str">
         <f t="shared" si="0"/>
         <v>BKLNP09</v>
@@ -66761,7 +66777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A32" s="98" t="str">
         <f t="shared" si="0"/>
         <v>BSYNP09</v>
@@ -66785,7 +66801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A33" s="98" t="str">
         <f t="shared" si="0"/>
         <v>DANP09</v>
@@ -66809,7 +66825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A34" s="98" t="str">
         <f t="shared" si="0"/>
         <v>FORNP09</v>
@@ -66833,7 +66849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A35" s="98" t="str">
         <f t="shared" si="0"/>
         <v>GLENP09</v>
@@ -66857,7 +66873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="str">
         <f t="shared" si="0"/>
         <v>GLFNP09</v>
@@ -66881,7 +66897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A37" s="98" t="str">
         <f t="shared" si="0"/>
         <v>GNHNP09</v>
@@ -66905,7 +66921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A38" s="98" t="str">
         <f t="shared" si="0"/>
         <v>HSNNP09</v>
@@ -66929,7 +66945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="str">
         <f t="shared" si="0"/>
         <v>KMENP09</v>
@@ -66956,7 +66972,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A40" s="98" t="str">
         <f t="shared" si="0"/>
         <v>MSYNP09</v>
@@ -66983,7 +66999,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A41" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TATNP09</v>
@@ -67010,7 +67026,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A42" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TBYNP09</v>
@@ -67037,7 +67053,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A43" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TGNNP09</v>
@@ -67064,7 +67080,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A44" s="98" t="str">
         <f t="shared" si="0"/>
         <v>TNANP09</v>
@@ -67091,7 +67107,7 @@
         <v>4318</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A45" s="98" t="str">
         <f t="shared" si="0"/>
         <v>WEINP09</v>
@@ -67118,7 +67134,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A46" s="98" t="str">
         <f t="shared" si="0"/>
         <v>HBCNP10</v>
@@ -67145,7 +67161,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="18.5" x14ac:dyDescent="0.25">
       <c r="A47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>RDBNP10</v>
@@ -67228,10 +67244,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -70401,7 +70417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
       <c r="B166" s="39" t="s">
         <v>488</v>
@@ -70430,7 +70446,7 @@
       <c r="L166" s="40"/>
       <c r="M166" s="41"/>
     </row>
-    <row r="167" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="42"/>
       <c r="B167" s="37" t="s">
         <v>488</v>
@@ -70459,7 +70475,7 @@
       <c r="L167" s="36"/>
       <c r="M167" s="43"/>
     </row>
-    <row r="168" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="44"/>
       <c r="B168" s="35" t="s">
         <v>488</v>
@@ -70488,7 +70504,7 @@
       <c r="L168" s="34"/>
       <c r="M168" s="45"/>
     </row>
-    <row r="169" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="42"/>
       <c r="B169" s="37" t="s">
         <v>488</v>
@@ -70517,7 +70533,7 @@
       <c r="L169" s="36"/>
       <c r="M169" s="43"/>
     </row>
-    <row r="170" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="44"/>
       <c r="B170" s="35" t="s">
         <v>488</v>
@@ -70546,7 +70562,7 @@
       <c r="L170" s="34"/>
       <c r="M170" s="45"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="14" x14ac:dyDescent="0.25">
       <c r="A171" s="46"/>
       <c r="B171" s="47" t="s">
         <v>488</v>
@@ -70585,7 +70601,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="56"/>
       <c r="B173" s="57" t="s">
         <v>488</v>
@@ -70614,7 +70630,7 @@
       <c r="L173" s="58"/>
       <c r="M173" s="59"/>
     </row>
-    <row r="174" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="60"/>
       <c r="B174" s="55" t="s">
         <v>488</v>
@@ -70643,7 +70659,7 @@
       <c r="L174" s="54"/>
       <c r="M174" s="61"/>
     </row>
-    <row r="175" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="62"/>
       <c r="B175" s="53" t="s">
         <v>488</v>
@@ -70672,7 +70688,7 @@
       <c r="L175" s="52"/>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="60"/>
       <c r="B176" s="55" t="s">
         <v>488</v>
@@ -70701,7 +70717,7 @@
       <c r="L176" s="54"/>
       <c r="M176" s="61"/>
     </row>
-    <row r="177" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="62"/>
       <c r="B177" s="53" t="s">
         <v>488</v>
@@ -70730,7 +70746,7 @@
       <c r="L177" s="52"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="60"/>
       <c r="B178" s="55" t="s">
         <v>488</v>
@@ -70759,7 +70775,7 @@
       <c r="L178" s="54"/>
       <c r="M178" s="61"/>
     </row>
-    <row r="179" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="62"/>
       <c r="B179" s="53" t="s">
         <v>488</v>
@@ -70788,7 +70804,7 @@
       <c r="L179" s="52"/>
       <c r="M179" s="63"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="14" x14ac:dyDescent="0.25">
       <c r="A180" s="64"/>
       <c r="B180" s="65" t="s">
         <v>488</v>
@@ -70827,7 +70843,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
       <c r="B182" s="39" t="s">
         <v>488</v>
@@ -70856,7 +70872,7 @@
       <c r="L182" s="40"/>
       <c r="M182" s="41"/>
     </row>
-    <row r="183" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="42"/>
       <c r="B183" s="37" t="s">
         <v>488</v>
@@ -70885,7 +70901,7 @@
       <c r="L183" s="36"/>
       <c r="M183" s="43"/>
     </row>
-    <row r="184" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="44"/>
       <c r="B184" s="35" t="s">
         <v>488</v>
@@ -70914,7 +70930,7 @@
       <c r="L184" s="34"/>
       <c r="M184" s="45"/>
     </row>
-    <row r="185" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42"/>
       <c r="B185" s="37" t="s">
         <v>488</v>
@@ -70943,7 +70959,7 @@
       <c r="L185" s="36"/>
       <c r="M185" s="43"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="14" x14ac:dyDescent="0.25">
       <c r="A186" s="66"/>
       <c r="B186" s="67" t="s">
         <v>488</v>
@@ -70986,227 +71002,227 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="Control 1">
+        <control shapeId="2067" r:id="rId4" name="Control 19">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>165</xdr:row>
+                <xdr:row>185</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>165</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>185</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="Control 1"/>
+        <control shapeId="2067" r:id="rId4" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="Control 2">
+        <control shapeId="2066" r:id="rId6" name="Control 18">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>166</xdr:row>
+                <xdr:row>184</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>166</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>184</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="Control 2"/>
+        <control shapeId="2066" r:id="rId6" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId7" name="Control 3">
+        <control shapeId="2065" r:id="rId7" name="Control 17">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>167</xdr:row>
+                <xdr:row>183</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>167</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>183</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2051" r:id="rId7" name="Control 3"/>
+        <control shapeId="2065" r:id="rId7" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="Control 4">
+        <control shapeId="2064" r:id="rId8" name="Control 16">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>168</xdr:row>
+                <xdr:row>182</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>168</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>182</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="Control 4"/>
+        <control shapeId="2064" r:id="rId8" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId9" name="Control 5">
+        <control shapeId="2063" r:id="rId9" name="Control 15">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>169</xdr:row>
+                <xdr:row>181</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>169</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>181</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId9" name="Control 5"/>
+        <control shapeId="2063" r:id="rId9" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId10" name="Control 6">
+        <control shapeId="2062" r:id="rId10" name="Control 14">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>170</xdr:row>
+                <xdr:row>179</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>170</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>179</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId10" name="Control 6"/>
+        <control shapeId="2062" r:id="rId10" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId11" name="Control 7">
+        <control shapeId="2061" r:id="rId11" name="Control 13">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>172</xdr:row>
+                <xdr:row>178</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>172</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>178</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId11" name="Control 7"/>
+        <control shapeId="2061" r:id="rId11" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId12" name="Control 8">
+        <control shapeId="2060" r:id="rId12" name="Control 12">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>173</xdr:row>
+                <xdr:row>177</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>173</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>177</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId12" name="Control 8"/>
+        <control shapeId="2060" r:id="rId12" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId13" name="Control 9">
+        <control shapeId="2059" r:id="rId13" name="Control 11">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>176</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>176</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId13" name="Control 9"/>
+        <control shapeId="2059" r:id="rId13" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -71222,9 +71238,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
+                <xdr:colOff>107950</xdr:colOff>
                 <xdr:row>175</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -71236,227 +71252,227 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId15" name="Control 11">
+        <control shapeId="2057" r:id="rId15" name="Control 9">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>176</xdr:row>
+                <xdr:row>174</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>176</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2059" r:id="rId15" name="Control 11"/>
+        <control shapeId="2057" r:id="rId15" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId16" name="Control 12">
+        <control shapeId="2056" r:id="rId16" name="Control 8">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>177</xdr:row>
+                <xdr:row>173</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>177</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>173</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2060" r:id="rId16" name="Control 12"/>
+        <control shapeId="2056" r:id="rId16" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId17" name="Control 13">
+        <control shapeId="2055" r:id="rId17" name="Control 7">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>178</xdr:row>
+                <xdr:row>172</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>178</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>172</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2061" r:id="rId17" name="Control 13"/>
+        <control shapeId="2055" r:id="rId17" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId18" name="Control 14">
+        <control shapeId="2054" r:id="rId18" name="Control 6">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>179</xdr:row>
+                <xdr:row>170</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>179</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>170</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2062" r:id="rId18" name="Control 14"/>
+        <control shapeId="2054" r:id="rId18" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId19" name="Control 15">
+        <control shapeId="2053" r:id="rId19" name="Control 5">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>181</xdr:row>
+                <xdr:row>169</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>181</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>169</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId19" name="Control 15"/>
+        <control shapeId="2053" r:id="rId19" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId20" name="Control 16">
+        <control shapeId="2052" r:id="rId20" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>182</xdr:row>
+                <xdr:row>168</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>182</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>168</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId20" name="Control 16"/>
+        <control shapeId="2052" r:id="rId20" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId21" name="Control 17">
+        <control shapeId="2051" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>183</xdr:row>
+                <xdr:row>167</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>183</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>167</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId21" name="Control 17"/>
+        <control shapeId="2051" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId22" name="Control 18">
+        <control shapeId="2050" r:id="rId22" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>184</xdr:row>
+                <xdr:row>166</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>184</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>166</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2066" r:id="rId22" name="Control 18"/>
+        <control shapeId="2050" r:id="rId22" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId23" name="Control 19">
+        <control shapeId="2049" r:id="rId23" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>185</xdr:row>
+                <xdr:row>165</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>185</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>165</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId23" name="Control 19"/>
+        <control shapeId="2049" r:id="rId23" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
